--- a/data-raw/chinloy.fractionalfactorial.xlsx
+++ b/data-raw/chinloy.fractionalfactorial.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC06163-0F2A-4F72-BC8E-69AC73BB5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="15168" windowHeight="9372"/>
+    <workbookView xWindow="2560" yWindow="1520" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,14 +355,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +403,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -466,7 +475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,16 +648,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B74" sqref="B74:B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5.91</v>
       </c>
@@ -682,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5.93</v>
       </c>
@@ -699,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4.1100000000000003</v>
       </c>
@@ -716,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.94</v>
       </c>
@@ -733,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.6900000000000004</v>
       </c>
@@ -750,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5.25</v>
       </c>
@@ -767,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.68</v>
       </c>
@@ -784,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5.71</v>
       </c>
@@ -801,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6.27</v>
       </c>
@@ -818,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -835,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6.44</v>
       </c>
@@ -852,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.21</v>
       </c>
@@ -869,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5.51</v>
       </c>
@@ -886,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5.53</v>
       </c>
@@ -903,7 +912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5.14</v>
       </c>
@@ -920,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6.05</v>
       </c>
@@ -937,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6.12</v>
       </c>
@@ -954,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.16</v>
       </c>
@@ -971,7 +980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5.01</v>
       </c>
@@ -988,7 +997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.84</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.7300000000000004</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.9000000000000004</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4.99</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.4</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4.37</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5.59</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>5.23</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6.05</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5.41</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5.16</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5.49</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3.82</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.47</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.79</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.86</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5.86</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5.85</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2.58</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.96</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.18</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5.41</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.18</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3.69</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4.6900000000000004</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5.84</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5.27</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5.6</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4.91</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>4.6900000000000004</v>
       </c>
@@ -1515,7 +1524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4.7300000000000004</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.28</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5.0999999999999996</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>5.14</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2.63</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5.73</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5.0999999999999996</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>4.95</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5.25</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2.68</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2.83</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4.33</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4.87</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5.76</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4.6100000000000003</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6.22</v>
       </c>
@@ -1787,7 +1796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3.55</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6.33</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3.24</v>
       </c>
@@ -1838,7 +1847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5.68</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4.9800000000000004</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>3.98</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4.93</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4.8499999999999996</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4.93</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4.4400000000000004</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4.1399999999999997</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4.68</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5.15</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2.54</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4.87</v>
       </c>
@@ -2048,24 +2057,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
